--- a/plans.xlsx
+++ b/plans.xlsx
@@ -18,9 +18,202 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>初步构想0510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位类部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法恢复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（涉及减伤比例公式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态栏（怎么做？可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备栏（做在哪里？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数实现或者是引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（受仇恨）自动攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新到地图某一位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于复活，传送，初始化…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其余组件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或由子类实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余技能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +221,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +283,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +375,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +420,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +455,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +637,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plans.xlsx
+++ b/plans.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2371EC82-599F-4383-97F1-E35D102F91CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>初步构想0510</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,12 +208,24 @@
   <si>
     <t>剩余技能点</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任冬晨</t>
+  </si>
+  <si>
+    <t>1.暴击之类随机机制能不做就不做减少工作量</t>
+  </si>
+  <si>
+    <t>2.是否需要两个变量一个储存最大血量一个当前血量（mp同理）</t>
+  </si>
+  <si>
+    <t>3.视野可以不要迷雾做成固定视野大小固定视角状态</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,12 +364,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -636,32 +649,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -675,26 +705,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -702,12 +732,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -715,7 +745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -726,85 +756,85 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="14" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -812,7 +842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>18</v>
       </c>
@@ -820,7 +850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
@@ -831,7 +861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>20</v>
       </c>
@@ -839,7 +869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>21</v>
       </c>
@@ -847,17 +877,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>24</v>
       </c>

--- a/plans.xlsx
+++ b/plans.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2371EC82-599F-4383-97F1-E35D102F91CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597D55B9-1834-4313-9549-6261A756F328}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>初步构想0510</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,30 @@
   </si>
   <si>
     <t>3.视野可以不要迷雾做成固定视野大小固定视角状态</t>
+  </si>
+  <si>
+    <t>状态栏的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色头上的血条设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构思中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标选定单位功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵的行动逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -650,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -665,7 +689,7 @@
     <col min="6" max="6" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,12 +697,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -686,12 +710,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -704,40 +728,70 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>5.12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -745,7 +799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -756,23 +810,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
